--- a/data/UK_DATA.xlsx
+++ b/data/UK_DATA.xlsx
@@ -747,14 +747,15 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P112" sqref="P112"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5489,5 +5490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>